--- a/outputs/Q5.2.xlsx
+++ b/outputs/Q5.2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{390DE89B-FA9F-4EAE-8F4F-378447A2FCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D5C954-47F2-4476-BEC0-D42A2D138D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q5.3OptValue" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,17 @@
     <sheet name="Q5.3Rank" sheetId="2" r:id="rId3"/>
     <sheet name="Q5.2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4094,23 +4101,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -5854,26 +5844,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9477,64 +9447,24 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11228,557 +11158,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12576,15 +11955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>566736</xdr:colOff>
+      <xdr:colOff>595311</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12610,1434 +11989,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Q5.3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>k1</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>k2</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>AverageWeight</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Rank</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>2</v>
-          </cell>
-          <cell r="C2">
-            <v>0.66666666666666596</v>
-          </cell>
-          <cell r="D2">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>4</v>
-          </cell>
-          <cell r="C3">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D3">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2</v>
-          </cell>
-          <cell r="B4">
-            <v>6</v>
-          </cell>
-          <cell r="C4">
-            <v>0.42857142857142799</v>
-          </cell>
-          <cell r="D4">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2</v>
-          </cell>
-          <cell r="B5">
-            <v>8</v>
-          </cell>
-          <cell r="C5">
-            <v>0.35555555555555501</v>
-          </cell>
-          <cell r="D5">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>0.30303030303030298</v>
-          </cell>
-          <cell r="D6">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2</v>
-          </cell>
-          <cell r="B7">
-            <v>12</v>
-          </cell>
-          <cell r="C7">
-            <v>0.26373626373626302</v>
-          </cell>
-          <cell r="D7">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2</v>
-          </cell>
-          <cell r="B8">
-            <v>14</v>
-          </cell>
-          <cell r="C8">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D8">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2</v>
-          </cell>
-          <cell r="B9">
-            <v>16</v>
-          </cell>
-          <cell r="C9">
-            <v>0.20915032679738499</v>
-          </cell>
-          <cell r="D9">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2</v>
-          </cell>
-          <cell r="B10">
-            <v>18</v>
-          </cell>
-          <cell r="C10">
-            <v>0.18947368421052599</v>
-          </cell>
-          <cell r="D10">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2</v>
-          </cell>
-          <cell r="B11">
-            <v>20</v>
-          </cell>
-          <cell r="C11">
-            <v>0.17316017316017299</v>
-          </cell>
-          <cell r="D11">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>4</v>
-          </cell>
-          <cell r="B12">
-            <v>2</v>
-          </cell>
-          <cell r="C12">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D12">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>4</v>
-          </cell>
-          <cell r="B13">
-            <v>4</v>
-          </cell>
-          <cell r="C13">
-            <v>0.57142857142857095</v>
-          </cell>
-          <cell r="D13">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>4</v>
-          </cell>
-          <cell r="B14">
-            <v>6</v>
-          </cell>
-          <cell r="C14">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D14">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>4</v>
-          </cell>
-          <cell r="B15">
-            <v>8</v>
-          </cell>
-          <cell r="C15">
-            <v>0.48484848484848397</v>
-          </cell>
-          <cell r="D15">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>4</v>
-          </cell>
-          <cell r="B16">
-            <v>10</v>
-          </cell>
-          <cell r="C16">
-            <v>0.439560439560439</v>
-          </cell>
-          <cell r="D16">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>4</v>
-          </cell>
-          <cell r="B17">
-            <v>12</v>
-          </cell>
-          <cell r="C17">
-            <v>0.4</v>
-          </cell>
-          <cell r="D17">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>4</v>
-          </cell>
-          <cell r="B18">
-            <v>14</v>
-          </cell>
-          <cell r="C18">
-            <v>0.36601307189542398</v>
-          </cell>
-          <cell r="D18">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>4</v>
-          </cell>
-          <cell r="B19">
-            <v>16</v>
-          </cell>
-          <cell r="C19">
-            <v>0.336842105263157</v>
-          </cell>
-          <cell r="D19">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>4</v>
-          </cell>
-          <cell r="B20">
-            <v>18</v>
-          </cell>
-          <cell r="C20">
-            <v>0.31168831168831101</v>
-          </cell>
-          <cell r="D20">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>4</v>
-          </cell>
-          <cell r="B21">
-            <v>20</v>
-          </cell>
-          <cell r="C21">
-            <v>0.28985507246376802</v>
-          </cell>
-          <cell r="D21">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>6</v>
-          </cell>
-          <cell r="B22">
-            <v>2</v>
-          </cell>
-          <cell r="C22">
-            <v>0.42857142857142799</v>
-          </cell>
-          <cell r="D22">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>6</v>
-          </cell>
-          <cell r="B23">
-            <v>4</v>
-          </cell>
-          <cell r="C23">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D23">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>6</v>
-          </cell>
-          <cell r="B24">
-            <v>6</v>
-          </cell>
-          <cell r="C24">
-            <v>0.54545454545454497</v>
-          </cell>
-          <cell r="D24">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>6</v>
-          </cell>
-          <cell r="B25">
-            <v>8</v>
-          </cell>
-          <cell r="C25">
-            <v>0.52747252747252704</v>
-          </cell>
-          <cell r="D25">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>6</v>
-          </cell>
-          <cell r="B26">
-            <v>10</v>
-          </cell>
-          <cell r="C26">
-            <v>0.5</v>
-          </cell>
-          <cell r="D26">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>6</v>
-          </cell>
-          <cell r="B27">
-            <v>12</v>
-          </cell>
-          <cell r="C27">
-            <v>0.47058823529411697</v>
-          </cell>
-          <cell r="D27">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>6</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>0.442105263157894</v>
-          </cell>
-          <cell r="D28">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>6</v>
-          </cell>
-          <cell r="B29">
-            <v>16</v>
-          </cell>
-          <cell r="C29">
-            <v>0.415584415584415</v>
-          </cell>
-          <cell r="D29">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>6</v>
-          </cell>
-          <cell r="B30">
-            <v>18</v>
-          </cell>
-          <cell r="C30">
-            <v>0.39130434782608697</v>
-          </cell>
-          <cell r="D30">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>6</v>
-          </cell>
-          <cell r="B31">
-            <v>20</v>
-          </cell>
-          <cell r="C31">
-            <v>0.36923076923076897</v>
-          </cell>
-          <cell r="D31">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>8</v>
-          </cell>
-          <cell r="B32">
-            <v>2</v>
-          </cell>
-          <cell r="C32">
-            <v>0.35555555555555501</v>
-          </cell>
-          <cell r="D32">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>8</v>
-          </cell>
-          <cell r="B33">
-            <v>4</v>
-          </cell>
-          <cell r="C33">
-            <v>0.48484848484848397</v>
-          </cell>
-          <cell r="D33">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>8</v>
-          </cell>
-          <cell r="B34">
-            <v>6</v>
-          </cell>
-          <cell r="C34">
-            <v>0.52747252747252704</v>
-          </cell>
-          <cell r="D34">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>8</v>
-          </cell>
-          <cell r="B35">
-            <v>8</v>
-          </cell>
-          <cell r="C35">
-            <v>0.53333333333333299</v>
-          </cell>
-          <cell r="D35">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>8</v>
-          </cell>
-          <cell r="B36">
-            <v>10</v>
-          </cell>
-          <cell r="C36">
-            <v>0.52287581699346397</v>
-          </cell>
-          <cell r="D36">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>8</v>
-          </cell>
-          <cell r="B37">
-            <v>12</v>
-          </cell>
-          <cell r="C37">
-            <v>0.50526315789473597</v>
-          </cell>
-          <cell r="D37">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>8</v>
-          </cell>
-          <cell r="B38">
-            <v>14</v>
-          </cell>
-          <cell r="C38">
-            <v>0.48484848484848397</v>
-          </cell>
-          <cell r="D38">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>8</v>
-          </cell>
-          <cell r="B39">
-            <v>16</v>
-          </cell>
-          <cell r="C39">
-            <v>0.46376811594202899</v>
-          </cell>
-          <cell r="D39">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>8</v>
-          </cell>
-          <cell r="B40">
-            <v>18</v>
-          </cell>
-          <cell r="C40">
-            <v>0.44307692307692298</v>
-          </cell>
-          <cell r="D40">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>8</v>
-          </cell>
-          <cell r="B41">
-            <v>20</v>
-          </cell>
-          <cell r="C41">
-            <v>0.42328042328042298</v>
-          </cell>
-          <cell r="D41">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>10</v>
-          </cell>
-          <cell r="B42">
-            <v>2</v>
-          </cell>
-          <cell r="C42">
-            <v>0.30303030303030298</v>
-          </cell>
-          <cell r="D42">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>10</v>
-          </cell>
-          <cell r="B43">
-            <v>4</v>
-          </cell>
-          <cell r="C43">
-            <v>0.439560439560439</v>
-          </cell>
-          <cell r="D43">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>10</v>
-          </cell>
-          <cell r="B44">
-            <v>6</v>
-          </cell>
-          <cell r="C44">
-            <v>0.5</v>
-          </cell>
-          <cell r="D44">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>10</v>
-          </cell>
-          <cell r="B45">
-            <v>8</v>
-          </cell>
-          <cell r="C45">
-            <v>0.52287581699346397</v>
-          </cell>
-          <cell r="D45">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>10</v>
-          </cell>
-          <cell r="B46">
-            <v>10</v>
-          </cell>
-          <cell r="C46">
-            <v>0.52631578947368396</v>
-          </cell>
-          <cell r="D46">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>10</v>
-          </cell>
-          <cell r="B47">
-            <v>12</v>
-          </cell>
-          <cell r="C47">
-            <v>0.51948051948051899</v>
-          </cell>
-          <cell r="D47">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>10</v>
-          </cell>
-          <cell r="B48">
-            <v>14</v>
-          </cell>
-          <cell r="C48">
-            <v>0.50724637681159401</v>
-          </cell>
-          <cell r="D48">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>10</v>
-          </cell>
-          <cell r="B49">
-            <v>16</v>
-          </cell>
-          <cell r="C49">
-            <v>0.492307692307692</v>
-          </cell>
-          <cell r="D49">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>10</v>
-          </cell>
-          <cell r="B50">
-            <v>18</v>
-          </cell>
-          <cell r="C50">
-            <v>0.476190476190476</v>
-          </cell>
-          <cell r="D50">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>10</v>
-          </cell>
-          <cell r="B51">
-            <v>20</v>
-          </cell>
-          <cell r="C51">
-            <v>0.45977011494252801</v>
-          </cell>
-          <cell r="D51">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>12</v>
-          </cell>
-          <cell r="B52">
-            <v>2</v>
-          </cell>
-          <cell r="C52">
-            <v>0.26373626373626302</v>
-          </cell>
-          <cell r="D52">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>12</v>
-          </cell>
-          <cell r="B53">
-            <v>4</v>
-          </cell>
-          <cell r="C53">
-            <v>0.4</v>
-          </cell>
-          <cell r="D53">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>12</v>
-          </cell>
-          <cell r="B54">
-            <v>6</v>
-          </cell>
-          <cell r="C54">
-            <v>0.47058823529411697</v>
-          </cell>
-          <cell r="D54">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>12</v>
-          </cell>
-          <cell r="B55">
-            <v>8</v>
-          </cell>
-          <cell r="C55">
-            <v>0.50526315789473597</v>
-          </cell>
-          <cell r="D55">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>12</v>
-          </cell>
-          <cell r="B56">
-            <v>10</v>
-          </cell>
-          <cell r="C56">
-            <v>0.51948051948051899</v>
-          </cell>
-          <cell r="D56">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>12</v>
-          </cell>
-          <cell r="B57">
-            <v>12</v>
-          </cell>
-          <cell r="C57">
-            <v>0.52173913043478204</v>
-          </cell>
-          <cell r="D57">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>12</v>
-          </cell>
-          <cell r="B58">
-            <v>14</v>
-          </cell>
-          <cell r="C58">
-            <v>0.51692307692307604</v>
-          </cell>
-          <cell r="D58">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>12</v>
-          </cell>
-          <cell r="B59">
-            <v>16</v>
-          </cell>
-          <cell r="C59">
-            <v>0.50793650793650702</v>
-          </cell>
-          <cell r="D59">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>12</v>
-          </cell>
-          <cell r="B60">
-            <v>18</v>
-          </cell>
-          <cell r="C60">
-            <v>0.49655172413793103</v>
-          </cell>
-          <cell r="D60">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>12</v>
-          </cell>
-          <cell r="B61">
-            <v>20</v>
-          </cell>
-          <cell r="C61">
-            <v>0.483870967741935</v>
-          </cell>
-          <cell r="D61">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>14</v>
-          </cell>
-          <cell r="B62">
-            <v>2</v>
-          </cell>
-          <cell r="C62">
-            <v>0.233333333333333</v>
-          </cell>
-          <cell r="D62">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>14</v>
-          </cell>
-          <cell r="B63">
-            <v>4</v>
-          </cell>
-          <cell r="C63">
-            <v>0.36601307189542398</v>
-          </cell>
-          <cell r="D63">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>14</v>
-          </cell>
-          <cell r="B64">
-            <v>6</v>
-          </cell>
-          <cell r="C64">
-            <v>0.442105263157894</v>
-          </cell>
-          <cell r="D64">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>14</v>
-          </cell>
-          <cell r="B65">
-            <v>8</v>
-          </cell>
-          <cell r="C65">
-            <v>0.48484848484848397</v>
-          </cell>
-          <cell r="D65">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>14</v>
-          </cell>
-          <cell r="B66">
-            <v>10</v>
-          </cell>
-          <cell r="C66">
-            <v>0.50724637681159401</v>
-          </cell>
-          <cell r="D66">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>14</v>
-          </cell>
-          <cell r="B67">
-            <v>12</v>
-          </cell>
-          <cell r="C67">
-            <v>0.51692307692307604</v>
-          </cell>
-          <cell r="D67">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>14</v>
-          </cell>
-          <cell r="B68">
-            <v>14</v>
-          </cell>
-          <cell r="C68">
-            <v>0.51851851851851805</v>
-          </cell>
-          <cell r="D68">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>14</v>
-          </cell>
-          <cell r="B69">
-            <v>16</v>
-          </cell>
-          <cell r="C69">
-            <v>0.51494252873563195</v>
-          </cell>
-          <cell r="D69">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>14</v>
-          </cell>
-          <cell r="B70">
-            <v>18</v>
-          </cell>
-          <cell r="C70">
-            <v>0.50806451612903203</v>
-          </cell>
-          <cell r="D70">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>14</v>
-          </cell>
-          <cell r="B71">
-            <v>20</v>
-          </cell>
-          <cell r="C71">
-            <v>0.49910873440285197</v>
-          </cell>
-          <cell r="D71">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>16</v>
-          </cell>
-          <cell r="B72">
-            <v>2</v>
-          </cell>
-          <cell r="C72">
-            <v>0.20915032679738499</v>
-          </cell>
-          <cell r="D72">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>16</v>
-          </cell>
-          <cell r="B73">
-            <v>4</v>
-          </cell>
-          <cell r="C73">
-            <v>0.336842105263157</v>
-          </cell>
-          <cell r="D73">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>16</v>
-          </cell>
-          <cell r="B74">
-            <v>6</v>
-          </cell>
-          <cell r="C74">
-            <v>0.415584415584415</v>
-          </cell>
-          <cell r="D74">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>16</v>
-          </cell>
-          <cell r="B75">
-            <v>8</v>
-          </cell>
-          <cell r="C75">
-            <v>0.46376811594202899</v>
-          </cell>
-          <cell r="D75">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>16</v>
-          </cell>
-          <cell r="B76">
-            <v>10</v>
-          </cell>
-          <cell r="C76">
-            <v>0.492307692307692</v>
-          </cell>
-          <cell r="D76">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>16</v>
-          </cell>
-          <cell r="B77">
-            <v>12</v>
-          </cell>
-          <cell r="C77">
-            <v>0.50793650793650702</v>
-          </cell>
-          <cell r="D77">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>16</v>
-          </cell>
-          <cell r="B78">
-            <v>14</v>
-          </cell>
-          <cell r="C78">
-            <v>0.51494252873563195</v>
-          </cell>
-          <cell r="D78">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>16</v>
-          </cell>
-          <cell r="B79">
-            <v>16</v>
-          </cell>
-          <cell r="C79">
-            <v>0.51612903225806395</v>
-          </cell>
-          <cell r="D79">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>16</v>
-          </cell>
-          <cell r="B80">
-            <v>18</v>
-          </cell>
-          <cell r="C80">
-            <v>0.51336898395721897</v>
-          </cell>
-          <cell r="D80">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>16</v>
-          </cell>
-          <cell r="B81">
-            <v>20</v>
-          </cell>
-          <cell r="C81">
-            <v>0.50793650793650702</v>
-          </cell>
-          <cell r="D81">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>18</v>
-          </cell>
-          <cell r="B82">
-            <v>2</v>
-          </cell>
-          <cell r="C82">
-            <v>0.18947368421052599</v>
-          </cell>
-          <cell r="D82">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>18</v>
-          </cell>
-          <cell r="B83">
-            <v>4</v>
-          </cell>
-          <cell r="C83">
-            <v>0.31168831168831101</v>
-          </cell>
-          <cell r="D83">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>18</v>
-          </cell>
-          <cell r="B84">
-            <v>6</v>
-          </cell>
-          <cell r="C84">
-            <v>0.39130434782608697</v>
-          </cell>
-          <cell r="D84">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>18</v>
-          </cell>
-          <cell r="B85">
-            <v>8</v>
-          </cell>
-          <cell r="C85">
-            <v>0.44307692307692298</v>
-          </cell>
-          <cell r="D85">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>18</v>
-          </cell>
-          <cell r="B86">
-            <v>10</v>
-          </cell>
-          <cell r="C86">
-            <v>0.476190476190476</v>
-          </cell>
-          <cell r="D86">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>18</v>
-          </cell>
-          <cell r="B87">
-            <v>12</v>
-          </cell>
-          <cell r="C87">
-            <v>0.49655172413793103</v>
-          </cell>
-          <cell r="D87">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>18</v>
-          </cell>
-          <cell r="B88">
-            <v>14</v>
-          </cell>
-          <cell r="C88">
-            <v>0.50806451612903203</v>
-          </cell>
-          <cell r="D88">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>18</v>
-          </cell>
-          <cell r="B89">
-            <v>16</v>
-          </cell>
-          <cell r="C89">
-            <v>0.51336898395721897</v>
-          </cell>
-          <cell r="D89">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>18</v>
-          </cell>
-          <cell r="B90">
-            <v>18</v>
-          </cell>
-          <cell r="C90">
-            <v>0.51428571428571401</v>
-          </cell>
-          <cell r="D90">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>18</v>
-          </cell>
-          <cell r="B91">
-            <v>20</v>
-          </cell>
-          <cell r="C91">
-            <v>0.51209103840682701</v>
-          </cell>
-          <cell r="D91">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>20</v>
-          </cell>
-          <cell r="B92">
-            <v>2</v>
-          </cell>
-          <cell r="C92">
-            <v>0.17316017316017299</v>
-          </cell>
-          <cell r="D92">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>20</v>
-          </cell>
-          <cell r="B93">
-            <v>4</v>
-          </cell>
-          <cell r="C93">
-            <v>0.28985507246376802</v>
-          </cell>
-          <cell r="D93">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>20</v>
-          </cell>
-          <cell r="B94">
-            <v>6</v>
-          </cell>
-          <cell r="C94">
-            <v>0.36923076923076897</v>
-          </cell>
-          <cell r="D94">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>20</v>
-          </cell>
-          <cell r="B95">
-            <v>8</v>
-          </cell>
-          <cell r="C95">
-            <v>0.42328042328042298</v>
-          </cell>
-          <cell r="D95">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>20</v>
-          </cell>
-          <cell r="B96">
-            <v>10</v>
-          </cell>
-          <cell r="C96">
-            <v>0.45977011494252801</v>
-          </cell>
-          <cell r="D96">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>20</v>
-          </cell>
-          <cell r="B97">
-            <v>12</v>
-          </cell>
-          <cell r="C97">
-            <v>0.483870967741935</v>
-          </cell>
-          <cell r="D97">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>20</v>
-          </cell>
-          <cell r="B98">
-            <v>14</v>
-          </cell>
-          <cell r="C98">
-            <v>0.49910873440285197</v>
-          </cell>
-          <cell r="D98">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>20</v>
-          </cell>
-          <cell r="B99">
-            <v>16</v>
-          </cell>
-          <cell r="C99">
-            <v>0.50793650793650702</v>
-          </cell>
-          <cell r="D99">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>20</v>
-          </cell>
-          <cell r="B100">
-            <v>18</v>
-          </cell>
-          <cell r="C100">
-            <v>0.51209103840682701</v>
-          </cell>
-          <cell r="D100">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>20</v>
-          </cell>
-          <cell r="B101">
-            <v>20</v>
-          </cell>
-          <cell r="C101">
-            <v>0.512820512820512</v>
-          </cell>
-          <cell r="D101">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14336,11 +12287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14540,7 +12491,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:T13" ca="1" si="1">OFFSET($F$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
+        <f t="shared" ref="K5:K13" ca="1" si="1">OFFSET($F$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
         <v>7.9999999973090903</v>
       </c>
       <c r="L5">
@@ -16854,7 +14805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17058,7 +15009,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:T13" ca="1" si="1">OFFSET($E$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
+        <f t="shared" ref="K5:K13" ca="1" si="1">OFFSET($E$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
         <v>4</v>
       </c>
       <c r="L5">
@@ -19372,11 +17323,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19576,7 +17527,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:T13" ca="1" si="1">OFFSET($D$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
+        <f t="shared" ref="K5:K13" ca="1" si="1">OFFSET($D$2,(ROW($J5)-ROW($J$4))*10+COLUMN(K$3)-COLUMN($K$3),0,1,1)</f>
         <v>6</v>
       </c>
       <c r="L5">
@@ -21890,11 +19841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
